--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Sema6a-Plxna4.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Sema6a-Plxna4.xlsx
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>24.871494</v>
+        <v>52.049028</v>
       </c>
       <c r="H2">
-        <v>74.61448200000001</v>
+        <v>156.147084</v>
       </c>
       <c r="I2">
-        <v>0.5523409677800469</v>
+        <v>0.7208330343078339</v>
       </c>
       <c r="J2">
-        <v>0.552340967780047</v>
+        <v>0.7208330343078339</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.172908</v>
+        <v>1.672411</v>
       </c>
       <c r="N2">
-        <v>6.518724</v>
+        <v>5.017233</v>
       </c>
       <c r="O2">
-        <v>0.6836640069168457</v>
+        <v>0.6245395681653219</v>
       </c>
       <c r="P2">
-        <v>0.6836640069168457</v>
+        <v>0.624539568165322</v>
       </c>
       <c r="Q2">
-        <v>54.04346828455201</v>
+        <v>87.04736696650801</v>
       </c>
       <c r="R2">
-        <v>486.391214560968</v>
+        <v>783.426302698572</v>
       </c>
       <c r="S2">
-        <v>0.3776156392168353</v>
+        <v>0.4501887519659132</v>
       </c>
       <c r="T2">
-        <v>0.3776156392168353</v>
+        <v>0.4501887519659133</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>24.871494</v>
+        <v>52.049028</v>
       </c>
       <c r="H3">
-        <v>74.61448200000001</v>
+        <v>156.147084</v>
       </c>
       <c r="I3">
-        <v>0.5523409677800469</v>
+        <v>0.7208330343078339</v>
       </c>
       <c r="J3">
-        <v>0.552340967780047</v>
+        <v>0.7208330343078339</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>2.019166</v>
       </c>
       <c r="O3">
-        <v>0.2117640075251322</v>
+        <v>0.2513435317223857</v>
       </c>
       <c r="P3">
-        <v>0.2117640075251322</v>
+        <v>0.2513435317223857</v>
       </c>
       <c r="Q3">
-        <v>16.73989168466801</v>
+        <v>35.03187589021601</v>
       </c>
       <c r="R3">
-        <v>150.659025162012</v>
+        <v>315.286883011944</v>
       </c>
       <c r="S3">
-        <v>0.1169659368574127</v>
+        <v>0.1811767206250946</v>
       </c>
       <c r="T3">
-        <v>0.1169659368574127</v>
+        <v>0.1811767206250946</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>24.871494</v>
+        <v>52.049028</v>
       </c>
       <c r="H4">
-        <v>74.61448200000001</v>
+        <v>156.147084</v>
       </c>
       <c r="I4">
-        <v>0.5523409677800469</v>
+        <v>0.7208330343078339</v>
       </c>
       <c r="J4">
-        <v>0.552340967780047</v>
+        <v>0.7208330343078339</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,25 +679,25 @@
         <v>0.332364</v>
       </c>
       <c r="N4">
-        <v>0.9970920000000001</v>
+        <v>0.997092</v>
       </c>
       <c r="O4">
-        <v>0.104571985558022</v>
+        <v>0.1241169001122924</v>
       </c>
       <c r="P4">
-        <v>0.104571985558022</v>
+        <v>0.1241169001122924</v>
       </c>
       <c r="Q4">
-        <v>8.266389231816001</v>
+        <v>17.299223142192</v>
       </c>
       <c r="R4">
-        <v>74.39750308634402</v>
+        <v>155.693008279728</v>
       </c>
       <c r="S4">
-        <v>0.05775939170579898</v>
+        <v>0.08946756171682604</v>
       </c>
       <c r="T4">
-        <v>0.05775939170579899</v>
+        <v>0.08946756171682606</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>20.183541</v>
       </c>
       <c r="I5">
-        <v>0.1494106274056591</v>
+        <v>0.09317473454775864</v>
       </c>
       <c r="J5">
-        <v>0.1494106274056591</v>
+        <v>0.09317473454775864</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>2.172908</v>
+        <v>1.672411</v>
       </c>
       <c r="N5">
-        <v>6.518724</v>
+        <v>5.017233</v>
       </c>
       <c r="O5">
-        <v>0.6836640069168457</v>
+        <v>0.6245395681653219</v>
       </c>
       <c r="P5">
-        <v>0.6836640069168457</v>
+        <v>0.624539568165322</v>
       </c>
       <c r="Q5">
-        <v>14.618992569076</v>
+        <v>11.251725329117</v>
       </c>
       <c r="R5">
-        <v>131.570933121684</v>
+        <v>101.265527962053</v>
       </c>
       <c r="S5">
-        <v>0.1021466682081128</v>
+        <v>0.05819130847837568</v>
       </c>
       <c r="T5">
-        <v>0.1021466682081128</v>
+        <v>0.05819130847837568</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>20.183541</v>
       </c>
       <c r="I6">
-        <v>0.1494106274056591</v>
+        <v>0.09317473454775864</v>
       </c>
       <c r="J6">
-        <v>0.1494106274056591</v>
+        <v>0.09317473454775864</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>2.019166</v>
       </c>
       <c r="O6">
-        <v>0.2117640075251322</v>
+        <v>0.2513435317223857</v>
       </c>
       <c r="P6">
-        <v>0.2117640075251322</v>
+        <v>0.2513435317223857</v>
       </c>
       <c r="Q6">
         <v>4.528213305200667</v>
@@ -818,10 +818,10 @@
         <v>40.753919746806</v>
       </c>
       <c r="S6">
-        <v>0.03163979322626671</v>
+        <v>0.02341886684852944</v>
       </c>
       <c r="T6">
-        <v>0.03163979322626671</v>
+        <v>0.02341886684852944</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>20.183541</v>
       </c>
       <c r="I7">
-        <v>0.1494106274056591</v>
+        <v>0.09317473454775864</v>
       </c>
       <c r="J7">
-        <v>0.1494106274056591</v>
+        <v>0.09317473454775864</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -865,13 +865,13 @@
         <v>0.332364</v>
       </c>
       <c r="N7">
-        <v>0.9970920000000001</v>
+        <v>0.997092</v>
       </c>
       <c r="O7">
-        <v>0.104571985558022</v>
+        <v>0.1241169001122924</v>
       </c>
       <c r="P7">
-        <v>0.104571985558022</v>
+        <v>0.1241169001122924</v>
       </c>
       <c r="Q7">
         <v>2.236094140308</v>
@@ -880,10 +880,10 @@
         <v>20.124847262772</v>
       </c>
       <c r="S7">
-        <v>0.01562416597127959</v>
+        <v>0.01156455922085352</v>
       </c>
       <c r="T7">
-        <v>0.01562416597127959</v>
+        <v>0.01156455922085352</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,10 +912,10 @@
         <v>40.289697</v>
       </c>
       <c r="I8">
-        <v>0.298248404814294</v>
+        <v>0.1859922311444076</v>
       </c>
       <c r="J8">
-        <v>0.298248404814294</v>
+        <v>0.1859922311444076</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>2.172908</v>
+        <v>1.672411</v>
       </c>
       <c r="N8">
-        <v>6.518724</v>
+        <v>5.017233</v>
       </c>
       <c r="O8">
-        <v>0.6836640069168457</v>
+        <v>0.6245395681653219</v>
       </c>
       <c r="P8">
-        <v>0.6836640069168457</v>
+        <v>0.624539568165322</v>
       </c>
       <c r="Q8">
-        <v>29.181934976292</v>
+        <v>22.460310816489</v>
       </c>
       <c r="R8">
-        <v>262.637414786628</v>
+        <v>202.142797348401</v>
       </c>
       <c r="S8">
-        <v>0.2039016994918977</v>
+        <v>0.116159507721033</v>
       </c>
       <c r="T8">
-        <v>0.2039016994918977</v>
+        <v>0.1161595077210331</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,10 +974,10 @@
         <v>40.289697</v>
       </c>
       <c r="I9">
-        <v>0.298248404814294</v>
+        <v>0.1859922311444076</v>
       </c>
       <c r="J9">
-        <v>0.298248404814294</v>
+        <v>0.1859922311444076</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,22 +992,22 @@
         <v>2.019166</v>
       </c>
       <c r="O9">
-        <v>0.2117640075251322</v>
+        <v>0.2513435317223857</v>
       </c>
       <c r="P9">
-        <v>0.2117640075251322</v>
+        <v>0.2513435317223857</v>
       </c>
       <c r="Q9">
-        <v>9.039065148078</v>
+        <v>9.039065148078002</v>
       </c>
       <c r="R9">
-        <v>81.351586332702</v>
+        <v>81.35158633270201</v>
       </c>
       <c r="S9">
-        <v>0.06315827744145282</v>
+        <v>0.04674794424876171</v>
       </c>
       <c r="T9">
-        <v>0.06315827744145282</v>
+        <v>0.04674794424876171</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,10 +1036,10 @@
         <v>40.289697</v>
       </c>
       <c r="I10">
-        <v>0.298248404814294</v>
+        <v>0.1859922311444076</v>
       </c>
       <c r="J10">
-        <v>0.298248404814294</v>
+        <v>0.1859922311444076</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,13 +1051,13 @@
         <v>0.332364</v>
       </c>
       <c r="N10">
-        <v>0.9970920000000001</v>
+        <v>0.997092</v>
       </c>
       <c r="O10">
-        <v>0.104571985558022</v>
+        <v>0.1241169001122924</v>
       </c>
       <c r="P10">
-        <v>0.104571985558022</v>
+        <v>0.1241169001122924</v>
       </c>
       <c r="Q10">
         <v>4.463614951236</v>
@@ -1066,10 +1066,10 @@
         <v>40.172534561124</v>
       </c>
       <c r="S10">
-        <v>0.03118842788094346</v>
+        <v>0.02308477917461283</v>
       </c>
       <c r="T10">
-        <v>0.03118842788094346</v>
+        <v>0.02308477917461284</v>
       </c>
     </row>
   </sheetData>
